--- a/Backlogs P2.xlsx
+++ b/Backlogs P2.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17571"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="16925"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ricky\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maher\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9084" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5664" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Product" sheetId="1" r:id="rId1"/>
@@ -278,10 +278,6 @@
 </t>
   </si>
   <si>
-    <t>Having a working start and
-exit buttons</t>
-  </si>
-  <si>
     <t xml:space="preserve">Have a highscore button </t>
   </si>
   <si>
@@ -372,6 +368,10 @@
   </si>
   <si>
     <t xml:space="preserve">You can choose the amount of players </t>
+  </si>
+  <si>
+    <t>Having a start and
+exit buttons</t>
   </si>
 </sst>
 </file>
@@ -488,7 +488,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1302,8 +1302,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1381,7 +1381,7 @@
         <v>59</v>
       </c>
       <c r="F4" s="14" t="s">
-        <v>80</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -1401,7 +1401,7 @@
         <v>60</v>
       </c>
       <c r="F5" s="16" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="54.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1523,10 +1523,10 @@
         <v>4.5138888888888888E-2</v>
       </c>
       <c r="E3" s="14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F3" s="14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="4" spans="1:23" ht="86.4" x14ac:dyDescent="0.3">
@@ -1543,7 +1543,7 @@
         <v>6.25E-2</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F4" s="14" t="s">
         <v>73</v>
@@ -1563,7 +1563,7 @@
         <v>3.4722222222222224E-2</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F5" s="14" t="s">
         <v>72</v>
@@ -1583,7 +1583,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F6" s="20" t="s">
         <v>75</v>
@@ -1594,7 +1594,7 @@
         <v>11</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C7" s="10" t="s">
         <v>22</v>
@@ -1603,7 +1603,7 @@
         <v>6.25E-2</v>
       </c>
       <c r="E7" s="19" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F7" s="14" t="s">
         <v>76</v>
@@ -1614,7 +1614,7 @@
         <v>12</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C8" s="10" t="s">
         <v>22</v>
@@ -1623,7 +1623,7 @@
         <v>7.6388888888888895E-2</v>
       </c>
       <c r="E8" s="19" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F8" s="14" t="s">
         <v>77</v>
@@ -1643,7 +1643,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="E9" s="19" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F9" s="14" t="s">
         <v>78</v>
@@ -1654,7 +1654,7 @@
         <v>14</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C10" s="10" t="s">
         <v>22</v>
@@ -1663,10 +1663,10 @@
         <v>9.0277777777777776E-2</v>
       </c>
       <c r="E10" s="19" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F10" s="14" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="11" spans="1:23" ht="72" x14ac:dyDescent="0.3">
@@ -1674,7 +1674,7 @@
         <v>16</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C11" s="10" t="s">
         <v>22</v>
@@ -1683,10 +1683,10 @@
         <v>9.7222222222222224E-2</v>
       </c>
       <c r="E11" s="19" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F11" s="14" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="12" spans="1:23" ht="86.4" x14ac:dyDescent="0.3">
@@ -1703,10 +1703,10 @@
         <v>0.1111111111111111</v>
       </c>
       <c r="E12" s="19" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F12" s="14" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="13" spans="1:23" ht="86.4" x14ac:dyDescent="0.3">
@@ -1723,10 +1723,10 @@
         <v>0.125</v>
       </c>
       <c r="E13" s="19" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F13" s="14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>

--- a/Backlogs P2.xlsx
+++ b/Backlogs P2.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5664" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5664"/>
   </bookViews>
   <sheets>
     <sheet name="Product" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="102">
   <si>
     <t>Display menu screen on program start</t>
   </si>
@@ -372,6 +372,9 @@
   <si>
     <t>Having a start and
 exit buttons</t>
+  </si>
+  <si>
+    <t>Show the highscore of the game when needed by user</t>
   </si>
 </sst>
 </file>
@@ -438,7 +441,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -486,6 +489,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -800,10 +804,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G31"/>
+  <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -897,15 +901,15 @@
         <v>3</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>3</v>
+        <v>101</v>
       </c>
       <c r="C6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
         <v>22</v>
       </c>
-      <c r="F6" t="s">
+      <c r="E6" t="s">
         <v>50</v>
       </c>
     </row>
@@ -914,7 +918,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C7" t="s">
         <v>29</v>
@@ -931,7 +935,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
         <v>29</v>
@@ -939,7 +943,7 @@
       <c r="D8" t="s">
         <v>22</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>50</v>
       </c>
     </row>
@@ -948,10 +952,10 @@
         <v>6</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="C9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D9" t="s">
         <v>22</v>
@@ -965,44 +969,44 @@
         <v>7</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D10" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="F10" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="10">
         <v>9</v>
       </c>
-      <c r="B11" s="9" t="s">
-        <v>25</v>
+      <c r="B11" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="C11" t="s">
         <v>31</v>
       </c>
-      <c r="D11" s="11" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="2">
+      <c r="D11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" s="21" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="10">
         <v>10</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12" t="s">
+      <c r="B12" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="D12" t="s">
-        <v>22</v>
-      </c>
-      <c r="F12" t="s">
-        <v>50</v>
+      <c r="D12" s="11" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
@@ -1010,10 +1014,10 @@
         <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D13" t="s">
         <v>22</v>
@@ -1027,10 +1031,10 @@
         <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="C14" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D14" t="s">
         <v>22</v>
@@ -1044,7 +1048,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C15" t="s">
         <v>30</v>
@@ -1061,7 +1065,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C16" t="s">
         <v>30</v>
@@ -1078,43 +1082,43 @@
         <v>15</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C17" t="s">
         <v>30</v>
       </c>
       <c r="D17" t="s">
         <v>22</v>
+      </c>
+      <c r="F17" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="10">
         <v>16</v>
       </c>
-      <c r="B18" s="9" t="s">
-        <v>41</v>
+      <c r="B18" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="C18" t="s">
         <v>30</v>
       </c>
-      <c r="D18" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="F18" t="s">
-        <v>50</v>
+      <c r="D18" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>17</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>42</v>
+      <c r="B19" s="9" t="s">
+        <v>41</v>
       </c>
       <c r="C19" t="s">
         <v>30</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D19" s="11" t="s">
         <v>22</v>
       </c>
       <c r="F19" t="s">
@@ -1126,7 +1130,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C20" t="s">
         <v>30</v>
@@ -1143,13 +1147,16 @@
         <v>19</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C21" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="D21" t="s">
-        <v>24</v>
+        <v>22</v>
+      </c>
+      <c r="F21" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
@@ -1157,10 +1164,10 @@
         <v>20</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>14</v>
+        <v>44</v>
       </c>
       <c r="C22" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="D22" t="s">
         <v>24</v>
@@ -1171,13 +1178,13 @@
         <v>21</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="C23" t="s">
         <v>31</v>
       </c>
       <c r="D23" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
@@ -1185,7 +1192,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C24" t="s">
         <v>31</v>
@@ -1194,29 +1201,29 @@
         <v>26</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>23</v>
       </c>
-      <c r="B25" s="9" t="s">
-        <v>15</v>
+      <c r="B25" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="C25" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D25" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <v>24</v>
       </c>
-      <c r="B26" s="1" t="s">
-        <v>16</v>
+      <c r="B26" s="9" t="s">
+        <v>15</v>
       </c>
       <c r="C26" t="s">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="D26" t="s">
         <v>26</v>
@@ -1227,10 +1234,10 @@
         <v>25</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C27" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="D27" t="s">
         <v>26</v>
@@ -1241,13 +1248,13 @@
         <v>26</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C28" t="s">
         <v>31</v>
       </c>
       <c r="D28" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
@@ -1255,13 +1262,13 @@
         <v>27</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C29" t="s">
         <v>31</v>
       </c>
       <c r="D29" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
@@ -1269,10 +1276,10 @@
         <v>28</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C30" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D30" t="s">
         <v>26</v>
@@ -1283,12 +1290,26 @@
         <v>29</v>
       </c>
       <c r="B31" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32" s="2">
+        <v>30</v>
+      </c>
+      <c r="B32" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C32" t="s">
         <v>33</v>
       </c>
-      <c r="D31" t="s">
+      <c r="D32" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1302,8 +1323,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1386,7 +1407,7 @@
     </row>
     <row r="5" spans="1:6" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B5" s="15" t="s">
         <v>56</v>
@@ -1406,7 +1427,7 @@
     </row>
     <row r="6" spans="1:6" ht="54.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="10">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B6" s="15" t="s">
         <v>57</v>
@@ -1426,6 +1447,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1433,8 +1455,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W13"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1511,7 +1533,7 @@
     </row>
     <row r="3" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A3" s="10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B3" s="12" t="s">
         <v>66</v>
@@ -1531,7 +1553,7 @@
     </row>
     <row r="4" spans="1:23" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A4" s="10">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B4" s="15" t="s">
         <v>71</v>
@@ -1571,7 +1593,7 @@
     </row>
     <row r="6" spans="1:23" ht="72" x14ac:dyDescent="0.3">
       <c r="A6" s="10">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B6" s="15" t="s">
         <v>74</v>
@@ -1591,7 +1613,7 @@
     </row>
     <row r="7" spans="1:23" ht="72" x14ac:dyDescent="0.3">
       <c r="A7" s="10">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B7" s="15" t="s">
         <v>81</v>
@@ -1611,7 +1633,7 @@
     </row>
     <row r="8" spans="1:23" ht="72" x14ac:dyDescent="0.3">
       <c r="A8" s="10">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B8" s="15" t="s">
         <v>82</v>
@@ -1631,7 +1653,7 @@
     </row>
     <row r="9" spans="1:23" ht="72" x14ac:dyDescent="0.3">
       <c r="A9" s="10">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B9" s="15" t="s">
         <v>68</v>
@@ -1651,7 +1673,7 @@
     </row>
     <row r="10" spans="1:23" ht="72" x14ac:dyDescent="0.3">
       <c r="A10" s="10">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B10" s="15" t="s">
         <v>83</v>
@@ -1711,7 +1733,7 @@
     </row>
     <row r="13" spans="1:23" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A13" s="10">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B13" s="15" t="s">
         <v>70</v>

--- a/Backlogs P2.xlsx
+++ b/Backlogs P2.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="102">
   <si>
     <t>Display menu screen on program start</t>
   </si>
@@ -807,7 +807,7 @@
   <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -959,9 +959,6 @@
       </c>
       <c r="D9" t="s">
         <v>22</v>
-      </c>
-      <c r="F9" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
@@ -1455,8 +1452,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1573,7 +1570,7 @@
     </row>
     <row r="5" spans="1:23" ht="72" x14ac:dyDescent="0.3">
       <c r="A5" s="10">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B5" s="15" t="s">
         <v>67</v>
@@ -1693,7 +1690,7 @@
     </row>
     <row r="11" spans="1:23" ht="72" x14ac:dyDescent="0.3">
       <c r="A11" s="10">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B11" s="15" t="s">
         <v>88</v>
@@ -1713,7 +1710,7 @@
     </row>
     <row r="12" spans="1:23" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A12" s="10">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B12" s="15" t="s">
         <v>69</v>

--- a/Backlogs P2.xlsx
+++ b/Backlogs P2.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maher\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maher\OneDrive\Documents\Informatica\Project 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5664"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5664" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Product" sheetId="1" r:id="rId1"/>
     <sheet name="Sprint1" sheetId="2" r:id="rId2"/>
     <sheet name="Sprint2" sheetId="3" r:id="rId3"/>
-    <sheet name="Sprint3" sheetId="4" r:id="rId4"/>
+    <sheet name="Sprint3" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="145621"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="132">
   <si>
     <t>Display menu screen on program start</t>
   </si>
@@ -376,12 +376,102 @@
   <si>
     <t>Show the highscore of the game when needed by user</t>
   </si>
+  <si>
+    <t>As a player I want to be able to play the game against other PC so that it make the game more of a multiplayer</t>
+  </si>
+  <si>
+    <t>As a player I want the game to be able to load previously save game so that I can resume playing it</t>
+  </si>
+  <si>
+    <t>As a player I want to be ale to save a game so that I can load it later</t>
+  </si>
+  <si>
+    <t>As a player I want the computer to have funny coments so that it will make the game more fun to play</t>
+  </si>
+  <si>
+    <t>As a player I want the computer to be able to play well so that it will can play against humans</t>
+  </si>
+  <si>
+    <t>As a player I want to be able to play versus a computer so that I can play solo</t>
+  </si>
+  <si>
+    <t>As a player I want the game to have a setting button so that I can set things in my preference</t>
+  </si>
+  <si>
+    <t>As a player I want pawns to be displayed and move smoothy so that it makes the game more appealing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As a player I want the game to have sounds for moving pawn , win screen and spiecal actions to make it more interesting </t>
+  </si>
+  <si>
+    <t>As a player I want to be able to pause and resume game so that I cane play freely</t>
+  </si>
+  <si>
+    <t>As a player after a player wins I want a button that returns me to main menu so that I can play again</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As a player I want to be able to put cards on board so that I can use the cards to win </t>
+  </si>
+  <si>
+    <t>Each player can move their pawns and attack with it</t>
+  </si>
+  <si>
+    <t>As a player I want to be able to take actions so that the game becomse more interesting</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It must be clear which player's turn is this </t>
+  </si>
+  <si>
+    <t>As a player I want to know which turn for a player is to be able so that I can play without mistakes</t>
+  </si>
+  <si>
+    <t>Every player must be able to place his pawns on the board</t>
+  </si>
+  <si>
+    <t>As a player I want to be able to place all pawns in their tile so that I can play with it</t>
+  </si>
+  <si>
+    <t>Each player must be able to use their cards</t>
+  </si>
+  <si>
+    <t>The game must include an main menu button at the winner page  that brings you to main menu</t>
+  </si>
+  <si>
+    <t>The game must have  a pause and resume buttons</t>
+  </si>
+  <si>
+    <t>The game must contain sounds for moving pawns , when a player wins and for spiecal actions</t>
+  </si>
+  <si>
+    <t>The game pawns have animation when they get summoned and move</t>
+  </si>
+  <si>
+    <t>The main menu must have setting with resultion..etc</t>
+  </si>
+  <si>
+    <t>There must be a single player mode against a computer</t>
+  </si>
+  <si>
+    <t>The computer must now good tactics to win</t>
+  </si>
+  <si>
+    <t>The computer must have funny interactions when something happens</t>
+  </si>
+  <si>
+    <t>The game progress can be saved</t>
+  </si>
+  <si>
+    <t xml:space="preserve">the game progress can be load </t>
+  </si>
+  <si>
+    <t>The game can be played with multible pc against each  other that are  connected</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -408,8 +498,14 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -428,6 +524,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -441,7 +543,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -490,6 +592,18 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -806,8 +920,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -948,7 +1062,7 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="2">
+      <c r="A9" s="24">
         <v>6</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -959,6 +1073,9 @@
       </c>
       <c r="D9" t="s">
         <v>22</v>
+      </c>
+      <c r="G9" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
@@ -979,7 +1096,7 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="10">
+      <c r="A11" s="23">
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -991,9 +1108,12 @@
       <c r="D11" t="s">
         <v>22</v>
       </c>
+      <c r="G11" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="12" spans="1:7" s="21" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="10">
+      <c r="A12" s="23">
         <v>10</v>
       </c>
       <c r="B12" s="12" t="s">
@@ -1004,6 +1124,9 @@
       </c>
       <c r="D12" s="11" t="s">
         <v>22</v>
+      </c>
+      <c r="G12" s="21" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
@@ -1074,7 +1197,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>15</v>
       </c>
@@ -1091,8 +1214,8 @@
         <v>50</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="10">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" s="23">
         <v>16</v>
       </c>
       <c r="B18" s="1" t="s">
@@ -1104,8 +1227,11 @@
       <c r="D18" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G18" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>17</v>
       </c>
@@ -1122,7 +1248,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>18</v>
       </c>
@@ -1139,7 +1265,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>19</v>
       </c>
@@ -1156,8 +1282,8 @@
         <v>50</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="2">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" s="22">
         <v>20</v>
       </c>
       <c r="B22" s="1" t="s">
@@ -1169,9 +1295,12 @@
       <c r="D22" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="2">
+      <c r="G22" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" s="22">
         <v>21</v>
       </c>
       <c r="B23" s="1" t="s">
@@ -1183,9 +1312,12 @@
       <c r="D23" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="2">
+      <c r="G23" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" s="22">
         <v>22</v>
       </c>
       <c r="B24" s="1" t="s">
@@ -1197,9 +1329,12 @@
       <c r="D24" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="2">
+      <c r="G24" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" s="22">
         <v>23</v>
       </c>
       <c r="B25" s="1" t="s">
@@ -1211,9 +1346,12 @@
       <c r="D25" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A26" s="2">
+      <c r="G25" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A26" s="23">
         <v>24</v>
       </c>
       <c r="B26" s="9" t="s">
@@ -1225,9 +1363,12 @@
       <c r="D26" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" s="2">
+      <c r="G26" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27" s="22">
         <v>25</v>
       </c>
       <c r="B27" s="1" t="s">
@@ -1239,9 +1380,12 @@
       <c r="D27" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28" s="2">
+      <c r="G27" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28" s="22">
         <v>26</v>
       </c>
       <c r="B28" s="1" t="s">
@@ -1253,9 +1397,12 @@
       <c r="D28" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A29" s="2">
+      <c r="G28" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29" s="22">
         <v>27</v>
       </c>
       <c r="B29" s="1" t="s">
@@ -1267,9 +1414,12 @@
       <c r="D29" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A30" s="2">
+      <c r="G29" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A30" s="22">
         <v>28</v>
       </c>
       <c r="B30" s="1" t="s">
@@ -1281,9 +1431,12 @@
       <c r="D30" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A31" s="2">
+      <c r="G30" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A31" s="22">
         <v>29</v>
       </c>
       <c r="B31" s="1" t="s">
@@ -1295,9 +1448,12 @@
       <c r="D31" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A32" s="2">
+      <c r="G31" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A32" s="22">
         <v>30</v>
       </c>
       <c r="B32" s="1" t="s">
@@ -1308,6 +1464,9 @@
       </c>
       <c r="D32" t="s">
         <v>26</v>
+      </c>
+      <c r="G32" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -1452,8 +1611,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W13"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1756,14 +1915,302 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="41.5546875" customWidth="1"/>
+    <col min="4" max="4" width="16" customWidth="1"/>
+    <col min="5" max="5" width="40" customWidth="1"/>
+    <col min="6" max="6" width="22.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" s="5" customFormat="1" ht="24.6" x14ac:dyDescent="0.4">
+      <c r="A1" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B1" s="4"/>
+    </row>
+    <row r="2" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A3" s="10">
+        <v>6</v>
+      </c>
+      <c r="B3" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="13">
+        <v>0.125</v>
+      </c>
+      <c r="F3" s="19" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A4" s="10">
+        <v>9</v>
+      </c>
+      <c r="B4" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="13">
+        <v>0.11805555555555557</v>
+      </c>
+      <c r="F4" s="19" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A5" s="10">
+        <v>10</v>
+      </c>
+      <c r="B5" s="19" t="s">
+        <v>115</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="13">
+        <v>0.13194444444444445</v>
+      </c>
+      <c r="F5" s="25" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A6" s="10">
+        <v>16</v>
+      </c>
+      <c r="B6" s="19" t="s">
+        <v>113</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="13">
+        <v>0.10347222222222223</v>
+      </c>
+      <c r="F6" s="19" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="10">
+        <v>20</v>
+      </c>
+      <c r="B7" s="19" t="s">
+        <v>112</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="13">
+        <v>0.11805555555555557</v>
+      </c>
+      <c r="F7" s="19" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A8" s="10">
+        <v>21</v>
+      </c>
+      <c r="B8" s="19" t="s">
+        <v>111</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="13">
+        <v>6.5972222222222224E-2</v>
+      </c>
+      <c r="F8" s="19" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="10">
+        <v>22</v>
+      </c>
+      <c r="B9" s="19" t="s">
+        <v>110</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="13">
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="F9" s="19" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A10" s="10">
+        <v>23</v>
+      </c>
+      <c r="B10" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="13">
+        <v>0.1986111111111111</v>
+      </c>
+      <c r="F10" s="19" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A11" s="10">
+        <v>24</v>
+      </c>
+      <c r="B11" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" s="13">
+        <v>5.5555555555555552E-2</v>
+      </c>
+      <c r="F11" s="19" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A12" s="10">
+        <v>25</v>
+      </c>
+      <c r="B12" s="19" t="s">
+        <v>107</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" s="13">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="F12" s="19" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A13" s="10">
+        <v>26</v>
+      </c>
+      <c r="B13" s="19" t="s">
+        <v>106</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" s="13">
+        <v>0.25</v>
+      </c>
+      <c r="F13" s="19" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A14" s="10">
+        <v>27</v>
+      </c>
+      <c r="B14" s="19" t="s">
+        <v>105</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" s="13">
+        <v>0.11805555555555557</v>
+      </c>
+      <c r="F14" s="19" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A15" s="10">
+        <v>28</v>
+      </c>
+      <c r="B15" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" s="13">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="F15" s="19" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A16" s="10">
+        <v>29</v>
+      </c>
+      <c r="B16" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" s="13">
+        <v>0.18055555555555555</v>
+      </c>
+      <c r="F16" s="19" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A17" s="10">
+        <v>30</v>
+      </c>
+      <c r="B17" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" s="13">
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="F17" s="19" t="s">
+        <v>131</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>